--- a/optimisation_results.xlsx
+++ b/optimisation_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zoetan/Documents/Cambridge/IIB/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AED8243-6BE9-144C-B025-B6339DDAB9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF72F373-0F93-7449-BCF1-35BFC086FE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="10" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="206" r:id="rId4"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -666,6 +666,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDADADA"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -19576,6 +19581,13 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:srgbClr val="DADADA"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -26156,192 +26168,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B683EED6-E1C2-BB4F-8E13-398353AD64CE}" name="PivotTable3" cacheId="206" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="21">
-  <location ref="A5:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="19">
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item h="1" m="1" x="3"/>
-        <item x="0"/>
-        <item h="1" x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" dataField="1" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="70">
-        <item h="1" x="0"/>
-        <item x="12"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="67"/>
-        <item x="24"/>
-        <item x="5"/>
-        <item x="19"/>
-        <item x="14"/>
-        <item x="59"/>
-        <item x="13"/>
-        <item x="30"/>
-        <item x="16"/>
-        <item x="32"/>
-        <item x="35"/>
-        <item x="9"/>
-        <item x="66"/>
-        <item x="15"/>
-        <item x="39"/>
-        <item x="53"/>
-        <item x="44"/>
-        <item x="23"/>
-        <item x="7"/>
-        <item x="34"/>
-        <item x="64"/>
-        <item x="25"/>
-        <item x="1"/>
-        <item x="50"/>
-        <item x="11"/>
-        <item x="47"/>
-        <item x="20"/>
-        <item x="4"/>
-        <item x="38"/>
-        <item x="26"/>
-        <item x="29"/>
-        <item x="60"/>
-        <item x="27"/>
-        <item x="33"/>
-        <item x="55"/>
-        <item x="62"/>
-        <item x="49"/>
-        <item x="41"/>
-        <item x="45"/>
-        <item x="37"/>
-        <item x="57"/>
-        <item x="18"/>
-        <item x="56"/>
-        <item x="36"/>
-        <item x="46"/>
-        <item x="43"/>
-        <item x="63"/>
-        <item x="28"/>
-        <item x="8"/>
-        <item x="58"/>
-        <item x="31"/>
-        <item x="65"/>
-        <item x="42"/>
-        <item x="52"/>
-        <item x="54"/>
-        <item x="6"/>
-        <item x="40"/>
-        <item x="48"/>
-        <item x="61"/>
-        <item x="51"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="22"/>
-        <item x="21"/>
-        <item x="68"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="2" hier="-1"/>
-    <pageField fld="18" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Average of if improvement" fld="18" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="2" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E0DE0758-3CCA-5942-8779-1F422C21FCC8}" name="PivotTable2" cacheId="206" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E0DE0758-3CCA-5942-8779-1F422C21FCC8}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
   <location ref="A23:E33" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
@@ -26829,6 +26656,191 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B683EED6-E1C2-BB4F-8E13-398353AD64CE}" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="21">
+  <location ref="A5:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="19">
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item h="1" m="1" x="3"/>
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" dataField="1" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="70">
+        <item h="1" x="0"/>
+        <item x="12"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="67"/>
+        <item x="24"/>
+        <item x="5"/>
+        <item x="19"/>
+        <item x="14"/>
+        <item x="59"/>
+        <item x="13"/>
+        <item x="30"/>
+        <item x="16"/>
+        <item x="32"/>
+        <item x="35"/>
+        <item x="9"/>
+        <item x="66"/>
+        <item x="15"/>
+        <item x="39"/>
+        <item x="53"/>
+        <item x="44"/>
+        <item x="23"/>
+        <item x="7"/>
+        <item x="34"/>
+        <item x="64"/>
+        <item x="25"/>
+        <item x="1"/>
+        <item x="50"/>
+        <item x="11"/>
+        <item x="47"/>
+        <item x="20"/>
+        <item x="4"/>
+        <item x="38"/>
+        <item x="26"/>
+        <item x="29"/>
+        <item x="60"/>
+        <item x="27"/>
+        <item x="33"/>
+        <item x="55"/>
+        <item x="62"/>
+        <item x="49"/>
+        <item x="41"/>
+        <item x="45"/>
+        <item x="37"/>
+        <item x="57"/>
+        <item x="18"/>
+        <item x="56"/>
+        <item x="36"/>
+        <item x="46"/>
+        <item x="43"/>
+        <item x="63"/>
+        <item x="28"/>
+        <item x="8"/>
+        <item x="58"/>
+        <item x="31"/>
+        <item x="65"/>
+        <item x="42"/>
+        <item x="52"/>
+        <item x="54"/>
+        <item x="6"/>
+        <item x="40"/>
+        <item x="48"/>
+        <item x="61"/>
+        <item x="51"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="68"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="2" hier="-1"/>
+    <pageField fld="18" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Average of if improvement" fld="18" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -27128,7 +27140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CF9ECB-215A-4D49-8113-43FACF5E0A6C}">
   <dimension ref="A2:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -27521,7 +27533,7 @@
         <v>4.8623390197753897</v>
       </c>
       <c r="Q2">
-        <f>SUM(M2,O2:P2)</f>
+        <f t="shared" ref="Q2:Q65" si="0">SUM(M2,O2:P2)</f>
         <v>43.054533004760671</v>
       </c>
       <c r="R2">
@@ -27583,15 +27595,15 @@
         <v>3.5407521724700901</v>
       </c>
       <c r="Q3">
-        <f>SUM(M3,O3:P3)</f>
+        <f t="shared" si="0"/>
         <v>47.022735118865903</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R66" si="0">VLOOKUP(Q3,$M$2:$N$121, 2, TRUE)-E3</f>
+        <f t="shared" ref="R3:R66" si="1">VLOOKUP(Q3,$M$2:$N$121, 2, TRUE)-E3</f>
         <v>-1.0071024361865502</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S66" si="1">IF(R3&gt;0, R3, 0)</f>
+        <f t="shared" ref="S3:S66" si="2">IF(R3&gt;0, R3, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -27645,15 +27657,15 @@
         <v>0.95575380325317305</v>
       </c>
       <c r="Q4">
-        <f>SUM(M4,O4:P4)</f>
+        <f t="shared" si="0"/>
         <v>26.570273876190083</v>
       </c>
       <c r="R4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.43956001785484999</v>
       </c>
       <c r="S4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.43956001785484999</v>
       </c>
     </row>
@@ -27707,15 +27719,15 @@
         <v>4.9708018302917401</v>
       </c>
       <c r="Q5">
-        <f>SUM(M5,O5:P5)</f>
+        <f t="shared" si="0"/>
         <v>49.646425724029477</v>
       </c>
       <c r="R5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.12003689238517</v>
       </c>
       <c r="S5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -27769,15 +27781,15 @@
         <v>0.79258394241332997</v>
       </c>
       <c r="Q6">
-        <f>SUM(M6,O6:P6)</f>
+        <f t="shared" si="0"/>
         <v>9.2718138694763095</v>
       </c>
       <c r="R6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.1832009754830501</v>
       </c>
       <c r="S6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -27831,15 +27843,15 @@
         <v>18.3180816173553</v>
       </c>
       <c r="Q7">
-        <f>SUM(M7,O7:P7)</f>
+        <f t="shared" si="0"/>
         <v>121.8954706192016</v>
       </c>
       <c r="R7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.4270675430397601</v>
       </c>
       <c r="S7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -27893,15 +27905,15 @@
         <v>4.6123876571655202</v>
       </c>
       <c r="Q8">
-        <f>SUM(M8,O8:P8)</f>
+        <f t="shared" si="0"/>
         <v>22.09425783157338</v>
       </c>
       <c r="R8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-7.1459780414752796</v>
       </c>
       <c r="S8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -27955,15 +27967,15 @@
         <v>24.251140832901001</v>
       </c>
       <c r="Q9">
-        <f>SUM(M9,O9:P9)</f>
+        <f t="shared" si="0"/>
         <v>106.51855826377864</v>
       </c>
       <c r="R9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.12989436596740989</v>
       </c>
       <c r="S9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -28017,15 +28029,15 @@
         <v>1.1125898361205999</v>
       </c>
       <c r="Q10">
-        <f>SUM(M10,O10:P10)</f>
+        <f t="shared" si="0"/>
         <v>11.482204914093</v>
       </c>
       <c r="R10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.32639622643262989</v>
       </c>
       <c r="S10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -28079,15 +28091,15 @@
         <v>1.2298669815063401</v>
       </c>
       <c r="Q11">
-        <f>SUM(M11,O11:P11)</f>
+        <f t="shared" si="0"/>
         <v>22.625843048095671</v>
       </c>
       <c r="R11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.6925083885182601</v>
       </c>
       <c r="S11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -28141,15 +28153,15 @@
         <v>3.45308184623718</v>
       </c>
       <c r="Q12">
-        <f>SUM(M12,O12:P12)</f>
+        <f t="shared" si="0"/>
         <v>35.923082590103071</v>
       </c>
       <c r="R12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-8.2533556689490251E-2</v>
       </c>
       <c r="S12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -28203,15 +28215,15 @@
         <v>2.50790810585021</v>
       </c>
       <c r="Q13">
-        <f>SUM(M13,O13:P13)</f>
+        <f t="shared" si="0"/>
         <v>20.172169208526551</v>
       </c>
       <c r="R13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3787722617340803</v>
       </c>
       <c r="S13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3787722617340803</v>
       </c>
     </row>
@@ -28265,15 +28277,15 @@
         <v>6.8903028964996302</v>
       </c>
       <c r="Q14">
-        <f>SUM(M14,O14:P14)</f>
+        <f t="shared" si="0"/>
         <v>91.847465038299532</v>
       </c>
       <c r="R14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.6692049223158898</v>
       </c>
       <c r="S14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -28327,15 +28339,15 @@
         <v>4.61610603332519</v>
       </c>
       <c r="Q15">
-        <f>SUM(M15,O15:P15)</f>
+        <f t="shared" si="0"/>
         <v>39.777976751327436</v>
       </c>
       <c r="R15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.1253916488652997</v>
       </c>
       <c r="S15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -28389,15 +28401,15 @@
         <v>5.6234672069549498</v>
       </c>
       <c r="Q16">
-        <f>SUM(M16,O16:P16)</f>
+        <f t="shared" si="0"/>
         <v>94.728466033935518</v>
       </c>
       <c r="R16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.4566140014388</v>
       </c>
       <c r="S16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -28451,15 +28463,15 @@
         <v>1.1813390254974301</v>
       </c>
       <c r="Q17">
-        <f>SUM(M17,O17:P17)</f>
+        <f t="shared" si="0"/>
         <v>12.75682067871092</v>
       </c>
       <c r="R17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.0762989582019094</v>
       </c>
       <c r="S17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -28513,15 +28525,15 @@
         <v>0.58658885955810502</v>
       </c>
       <c r="Q18">
-        <f>SUM(M18,O18:P18)</f>
+        <f t="shared" si="0"/>
         <v>10.942096948623655</v>
       </c>
       <c r="R18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.51324907701691025</v>
       </c>
       <c r="S18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -28575,15 +28587,15 @@
         <v>9.45346999168396</v>
       </c>
       <c r="Q19">
-        <f>SUM(M19,O19:P19)</f>
+        <f t="shared" si="0"/>
         <v>126.68952107429489</v>
       </c>
       <c r="R19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.9178966650644098</v>
       </c>
       <c r="S19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -28637,15 +28649,15 @@
         <v>0.80146312713623002</v>
       </c>
       <c r="Q20">
-        <f>SUM(M20,O20:P20)</f>
+        <f t="shared" si="0"/>
         <v>14.07628512382507</v>
       </c>
       <c r="R20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4.1438152125183301</v>
       </c>
       <c r="S20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -28699,15 +28711,15 @@
         <v>5.6408922672271702</v>
       </c>
       <c r="Q21">
-        <f>SUM(M21,O21:P21)</f>
+        <f t="shared" si="0"/>
         <v>16.500025272369371</v>
       </c>
       <c r="R21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.03069231449693</v>
       </c>
       <c r="S21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -28761,15 +28773,15 @@
         <v>5.5664110183715803</v>
       </c>
       <c r="Q22">
-        <f>SUM(M22,O22:P22)</f>
+        <f t="shared" si="0"/>
         <v>37.967098951339629</v>
       </c>
       <c r="R22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.7605863583170902</v>
       </c>
       <c r="S22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -28823,15 +28835,15 @@
         <v>0.75018382072448697</v>
       </c>
       <c r="Q23">
-        <f>SUM(M23,O23:P23)</f>
+        <f t="shared" si="0"/>
         <v>13.388416767120347</v>
       </c>
       <c r="R23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.5371686411612897</v>
       </c>
       <c r="S23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -28885,15 +28897,15 @@
         <v>2.1013739109039302</v>
       </c>
       <c r="Q24">
-        <f>SUM(M24,O24:P24)</f>
+        <f t="shared" si="0"/>
         <v>21.79273605346679</v>
       </c>
       <c r="R24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.6328738046559799</v>
       </c>
       <c r="S24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -28947,15 +28959,15 @@
         <v>1.0721700191497801</v>
       </c>
       <c r="Q25">
-        <f>SUM(M25,O25:P25)</f>
+        <f t="shared" si="0"/>
         <v>19.01902270317068</v>
       </c>
       <c r="R25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.57206620660242002</v>
       </c>
       <c r="S25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -29009,15 +29021,15 @@
         <v>1.6237809658050499</v>
       </c>
       <c r="Q26">
-        <f>SUM(M26,O26:P26)</f>
+        <f t="shared" si="0"/>
         <v>43.911127328872603</v>
       </c>
       <c r="R26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.7637008495636399</v>
       </c>
       <c r="S26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -29071,15 +29083,15 @@
         <v>3.9594230651855402</v>
       </c>
       <c r="Q27">
-        <f>SUM(M27,O27:P27)</f>
+        <f t="shared" si="0"/>
         <v>20.931068658828679</v>
       </c>
       <c r="R27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.0913979342137901</v>
       </c>
       <c r="S27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -29133,15 +29145,15 @@
         <v>8.0364947319030708</v>
       </c>
       <c r="Q28">
-        <f>SUM(M28,O28:P28)</f>
+        <f t="shared" si="0"/>
         <v>108.1457216739654</v>
       </c>
       <c r="R28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.2091893458397296</v>
       </c>
       <c r="S28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -29195,15 +29207,15 @@
         <v>10.214849948883</v>
       </c>
       <c r="Q29">
-        <f>SUM(M29,O29:P29)</f>
+        <f t="shared" si="0"/>
         <v>33.359534025192168</v>
       </c>
       <c r="R29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3212214231676502</v>
       </c>
       <c r="S29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3212214231676502</v>
       </c>
     </row>
@@ -29257,15 +29269,15 @@
         <v>13.0528492927551</v>
       </c>
       <c r="Q30">
-        <f>SUM(M30,O30:P30)</f>
+        <f t="shared" si="0"/>
         <v>139.4681181907651</v>
       </c>
       <c r="R30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.9412525761356398</v>
       </c>
       <c r="S30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -29319,15 +29331,15 @@
         <v>2.6374237537384002</v>
       </c>
       <c r="Q31">
-        <f>SUM(M31,O31:P31)</f>
+        <f t="shared" si="0"/>
         <v>13.716021060943589</v>
       </c>
       <c r="R31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.55943059554774011</v>
       </c>
       <c r="S31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.55943059554774011</v>
       </c>
     </row>
@@ -29381,15 +29393,15 @@
         <v>5.6024088859558097</v>
       </c>
       <c r="Q32">
-        <f>SUM(M32,O32:P32)</f>
+        <f t="shared" si="0"/>
         <v>95.638150930404649</v>
       </c>
       <c r="R32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.97851114270475015</v>
       </c>
       <c r="S32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -29443,15 +29455,15 @@
         <v>4.7413182258605904</v>
       </c>
       <c r="Q33">
-        <f>SUM(M33,O33:P33)</f>
+        <f t="shared" si="0"/>
         <v>22.395516157150212</v>
       </c>
       <c r="R33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.35690008956986</v>
       </c>
       <c r="S33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -29505,15 +29517,15 @@
         <v>44.429147958755401</v>
       </c>
       <c r="Q34">
-        <f>SUM(M34,O34:P34)</f>
+        <f t="shared" si="0"/>
         <v>129.65707993507371</v>
       </c>
       <c r="R34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-9999999998.7010822</v>
       </c>
       <c r="S34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -29567,15 +29579,15 @@
         <v>7.7943120002746502</v>
       </c>
       <c r="Q35">
-        <f>SUM(M35,O35:P35)</f>
+        <f t="shared" si="0"/>
         <v>39.851710319519036</v>
       </c>
       <c r="R35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4.5590431833527294</v>
       </c>
       <c r="S35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -29629,15 +29641,15 @@
         <v>3.9767329692840501</v>
       </c>
       <c r="Q36">
-        <f>SUM(M36,O36:P36)</f>
+        <f t="shared" si="0"/>
         <v>17.169237136840803</v>
       </c>
       <c r="R36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-6.8724249474468602</v>
       </c>
       <c r="S36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -29691,15 +29703,15 @@
         <v>12.8023421764373</v>
       </c>
       <c r="Q37">
-        <f>SUM(M37,O37:P37)</f>
+        <f t="shared" si="0"/>
         <v>134.73455882072375</v>
       </c>
       <c r="R37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.2331021155620014E-2</v>
       </c>
       <c r="S37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -29753,15 +29765,15 @@
         <v>47.031595945358198</v>
       </c>
       <c r="Q38">
-        <f>SUM(M38,O38:P38)</f>
+        <f t="shared" si="0"/>
         <v>169.27469515800399</v>
       </c>
       <c r="R38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.5724246760551199</v>
       </c>
       <c r="S38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -29815,15 +29827,15 @@
         <v>2.5910842418670601</v>
       </c>
       <c r="Q39">
-        <f>SUM(M39,O39:P39)</f>
+        <f t="shared" si="0"/>
         <v>42.423730134963968</v>
       </c>
       <c r="R39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.6327849777097905</v>
       </c>
       <c r="S39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -29877,15 +29889,15 @@
         <v>5.9719300270080504</v>
       </c>
       <c r="Q40">
-        <f>SUM(M40,O40:P40)</f>
+        <f t="shared" si="0"/>
         <v>38.649889230728071</v>
       </c>
       <c r="R40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.5047747957219819E-2</v>
       </c>
       <c r="S40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.5047747957219819E-2</v>
       </c>
     </row>
@@ -29939,15 +29951,15 @@
         <v>1.1867430210113501</v>
       </c>
       <c r="Q41">
-        <f>SUM(M41,O41:P41)</f>
+        <f t="shared" si="0"/>
         <v>28.299916028976401</v>
       </c>
       <c r="R41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-18.675693783765212</v>
       </c>
       <c r="S41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -30001,15 +30013,15 @@
         <v>8.8758730888366699</v>
       </c>
       <c r="Q42">
-        <f>SUM(M42,O42:P42)</f>
+        <f t="shared" si="0"/>
         <v>54.462509155273338</v>
       </c>
       <c r="R42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.151949979100138</v>
       </c>
       <c r="S42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -30063,15 +30075,15 @@
         <v>1.2908301353454501</v>
       </c>
       <c r="Q43">
-        <f>SUM(M43,O43:P43)</f>
+        <f t="shared" si="0"/>
         <v>29.772373199462862</v>
       </c>
       <c r="R43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.7663324955402402</v>
       </c>
       <c r="S43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -30125,15 +30137,15 @@
         <v>19.3337032794952</v>
       </c>
       <c r="Q44">
-        <f>SUM(M44,O44:P44)</f>
+        <f t="shared" si="0"/>
         <v>104.34598827362051</v>
       </c>
       <c r="R44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.94354664490566997</v>
       </c>
       <c r="S44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -30187,15 +30199,15 @@
         <v>1.6980409622192301</v>
       </c>
       <c r="Q45">
-        <f>SUM(M45,O45:P45)</f>
+        <f t="shared" si="0"/>
         <v>15.469736337661731</v>
       </c>
       <c r="R45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.8047503723795995</v>
       </c>
       <c r="S45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -30249,15 +30261,15 @@
         <v>0.79598402976989702</v>
       </c>
       <c r="Q46">
-        <f>SUM(M46,O46:P46)</f>
+        <f t="shared" si="0"/>
         <v>15.568673133850087</v>
       </c>
       <c r="R46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97352443348933027</v>
       </c>
       <c r="S46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.97352443348933027</v>
       </c>
     </row>
@@ -30311,15 +30323,15 @@
         <v>1.0259552001953101</v>
       </c>
       <c r="Q47">
-        <f>SUM(M47,O47:P47)</f>
+        <f t="shared" si="0"/>
         <v>24.656729221343948</v>
       </c>
       <c r="R47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.50570458871635</v>
       </c>
       <c r="S47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -30373,15 +30385,15 @@
         <v>2.32823586463928</v>
       </c>
       <c r="Q48">
-        <f>SUM(M48,O48:P48)</f>
+        <f t="shared" si="0"/>
         <v>17.403442859649648</v>
       </c>
       <c r="R48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.42354696371007017</v>
       </c>
       <c r="S48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.42354696371007017</v>
       </c>
     </row>
@@ -30435,15 +30447,15 @@
         <v>6.0060150623321498</v>
       </c>
       <c r="Q49">
-        <f>SUM(M49,O49:P49)</f>
+        <f t="shared" si="0"/>
         <v>71.279393672943115</v>
       </c>
       <c r="R49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.41378159679359006</v>
       </c>
       <c r="S49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -30497,15 +30509,15 @@
         <v>9.7292091846465993</v>
       </c>
       <c r="Q50">
-        <f>SUM(M50,O50:P50)</f>
+        <f t="shared" si="0"/>
         <v>125.78559207916175</v>
       </c>
       <c r="R50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.1459489733904098</v>
       </c>
       <c r="S50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -30559,15 +30571,15 @@
         <v>4.6489109992980904</v>
       </c>
       <c r="Q51">
-        <f>SUM(M51,O51:P51)</f>
+        <f t="shared" si="0"/>
         <v>25.504492044448767</v>
       </c>
       <c r="R51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.07257931035151</v>
       </c>
       <c r="S51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -30621,15 +30633,15 @@
         <v>5.0025708675384504</v>
       </c>
       <c r="Q52">
-        <f>SUM(M52,O52:P52)</f>
+        <f t="shared" si="0"/>
         <v>88.916360855102496</v>
       </c>
       <c r="R52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-6.8059749524735906</v>
       </c>
       <c r="S52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -30683,15 +30695,15 @@
         <v>2.83724689483642</v>
       </c>
       <c r="Q53">
-        <f>SUM(M53,O53:P53)</f>
+        <f t="shared" si="0"/>
         <v>35.610671758651691</v>
       </c>
       <c r="R53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.1903446814616303</v>
       </c>
       <c r="S53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -30745,15 +30757,15 @@
         <v>2.6220998764038002</v>
       </c>
       <c r="Q54">
-        <f>SUM(M54,O54:P54)</f>
+        <f t="shared" si="0"/>
         <v>25.143843412399221</v>
       </c>
       <c r="R54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.7650419697753899</v>
       </c>
       <c r="S54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -30807,15 +30819,15 @@
         <v>8.4159998893737793</v>
       </c>
       <c r="Q55">
-        <f>SUM(M55,O55:P55)</f>
+        <f t="shared" si="0"/>
         <v>108.20758008956908</v>
       </c>
       <c r="R55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.54872791721568004</v>
       </c>
       <c r="S55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -30869,15 +30881,15 @@
         <v>3.73982381820678</v>
       </c>
       <c r="Q56">
-        <f>SUM(M56,O56:P56)</f>
+        <f t="shared" si="0"/>
         <v>39.616577863693209</v>
       </c>
       <c r="R56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.34608055616661981</v>
       </c>
       <c r="S56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -30931,15 +30943,15 @@
         <v>17.311703681945801</v>
       </c>
       <c r="Q57">
-        <f>SUM(M57,O57:P57)</f>
+        <f t="shared" si="0"/>
         <v>106.02008247375483</v>
       </c>
       <c r="R57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.6068044558577399</v>
       </c>
       <c r="S57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -30993,15 +31005,15 @@
         <v>8.0876808166503906</v>
       </c>
       <c r="Q58">
-        <f>SUM(M58,O58:P58)</f>
+        <f t="shared" si="0"/>
         <v>95.099195718765174</v>
       </c>
       <c r="R58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.68257837882376005</v>
       </c>
       <c r="S58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -31055,15 +31067,15 @@
         <v>6.3040590286254803</v>
       </c>
       <c r="Q59">
-        <f>SUM(M59,O59:P59)</f>
+        <f t="shared" si="0"/>
         <v>32.802327871322561</v>
       </c>
       <c r="R59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.2221637630419795</v>
       </c>
       <c r="S59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -31117,15 +31129,15 @@
         <v>5.3830852508544904</v>
       </c>
       <c r="Q60">
-        <f>SUM(M60,O60:P60)</f>
+        <f t="shared" si="0"/>
         <v>48.424120426177893</v>
       </c>
       <c r="R60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.73076756391149988</v>
       </c>
       <c r="S60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -31179,15 +31191,15 @@
         <v>1.38020920753479</v>
       </c>
       <c r="Q61">
-        <f>SUM(M61,O61:P61)</f>
+        <f t="shared" si="0"/>
         <v>30.5196371078491</v>
       </c>
       <c r="R61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.32051239549603006</v>
       </c>
       <c r="S61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -31241,15 +31253,15 @@
         <v>4.9997429847717196</v>
       </c>
       <c r="Q62">
-        <f>SUM(M62,O62:P62)</f>
+        <f t="shared" si="0"/>
         <v>33.629339933395279</v>
       </c>
       <c r="R62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.8495068176086904</v>
       </c>
       <c r="S62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.8495068176086904</v>
       </c>
     </row>
@@ -31303,15 +31315,15 @@
         <v>2.3796811103820801</v>
       </c>
       <c r="Q63">
-        <f>SUM(M63,O63:P63)</f>
+        <f t="shared" si="0"/>
         <v>45.235100030898948</v>
       </c>
       <c r="R63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.2883675730131798</v>
       </c>
       <c r="S63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -31365,15 +31377,15 @@
         <v>40.5004208087921</v>
       </c>
       <c r="Q64">
-        <f>SUM(M64,O64:P64)</f>
+        <f t="shared" si="0"/>
         <v>169.84941697120621</v>
       </c>
       <c r="R64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.46511939427369997</v>
       </c>
       <c r="S64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -31427,15 +31439,15 @@
         <v>31.1185829639434</v>
       </c>
       <c r="Q65">
-        <f>SUM(M65,O65:P65)</f>
+        <f t="shared" si="0"/>
         <v>132.24486303329456</v>
       </c>
       <c r="R65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.4645224774675898</v>
       </c>
       <c r="S65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -31489,15 +31501,15 @@
         <v>8.3367040157318097</v>
       </c>
       <c r="Q66">
-        <f>SUM(M66,O66:P66)</f>
+        <f t="shared" ref="Q66:Q129" si="3">SUM(M66,O66:P66)</f>
         <v>43.931866168975731</v>
       </c>
       <c r="R66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-8.7614294493540079E-2</v>
       </c>
       <c r="S66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -31551,15 +31563,15 @@
         <v>3.9501581192016602</v>
       </c>
       <c r="Q67">
-        <f>SUM(M67,O67:P67)</f>
+        <f t="shared" si="3"/>
         <v>55.009364843368488</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R130" si="2">VLOOKUP(Q67,$M$2:$N$121, 2, TRUE)-E67</f>
+        <f t="shared" ref="R67:R121" si="4">VLOOKUP(Q67,$M$2:$N$121, 2, TRUE)-E67</f>
         <v>-0.93143973457569806</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S130" si="3">IF(R67&gt;0, R67, 0)</f>
+        <f t="shared" ref="S67:S130" si="5">IF(R67&gt;0, R67, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -31613,15 +31625,15 @@
         <v>2.7014009952545099</v>
       </c>
       <c r="Q68">
-        <f>SUM(M68,O68:P68)</f>
+        <f t="shared" si="3"/>
         <v>39.112616062164278</v>
       </c>
       <c r="R68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-2.7102396118816197</v>
       </c>
       <c r="S68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -31675,15 +31687,15 @@
         <v>0.92600798606872503</v>
       </c>
       <c r="Q69">
-        <f>SUM(M69,O69:P69)</f>
+        <f t="shared" si="3"/>
         <v>47.38021683692925</v>
       </c>
       <c r="R69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-23.566865314552</v>
       </c>
       <c r="S69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -31737,15 +31749,15 @@
         <v>3.7291448116302401</v>
       </c>
       <c r="Q70">
-        <f>SUM(M70,O70:P70)</f>
+        <f t="shared" si="3"/>
         <v>47.212347745895372</v>
       </c>
       <c r="R70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.39228488654276017</v>
       </c>
       <c r="S70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -31799,15 +31811,15 @@
         <v>3.24959993362426</v>
       </c>
       <c r="Q71">
-        <f>SUM(M71,O71:P71)</f>
+        <f t="shared" si="3"/>
         <v>27.223479032516387</v>
       </c>
       <c r="R71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-2.08703616486331</v>
       </c>
       <c r="S71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -31861,15 +31873,15 @@
         <v>4.9404642581939697</v>
       </c>
       <c r="Q72">
-        <f>SUM(M72,O72:P72)</f>
+        <f t="shared" si="3"/>
         <v>30.534116268157867</v>
       </c>
       <c r="R72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.27024048494693997</v>
       </c>
       <c r="S72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.27024048494693997</v>
       </c>
     </row>
@@ -31923,15 +31935,15 @@
         <v>14.273835897445601</v>
       </c>
       <c r="Q73">
-        <f>SUM(M73,O73:P73)</f>
+        <f t="shared" si="3"/>
         <v>118.66724967956532</v>
       </c>
       <c r="R73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.55335828364497996</v>
       </c>
       <c r="S73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -31985,15 +31997,15 @@
         <v>6.2841076850891104</v>
       </c>
       <c r="Q74">
-        <f>SUM(M74,O74:P74)</f>
+        <f t="shared" si="3"/>
         <v>108.36018753051741</v>
       </c>
       <c r="R74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-2.1615725278641102</v>
       </c>
       <c r="S74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -32047,15 +32059,15 @@
         <v>7.3909242153167698</v>
       </c>
       <c r="Q75">
-        <f>SUM(M75,O75:P75)</f>
+        <f t="shared" si="3"/>
         <v>114.49460124969467</v>
       </c>
       <c r="R75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.0319004602020119E-2</v>
       </c>
       <c r="S75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.0319004602020119E-2</v>
       </c>
     </row>
@@ -32109,15 +32121,15 @@
         <v>1.3076820373535101</v>
       </c>
       <c r="Q76">
-        <f>SUM(M76,O76:P76)</f>
+        <f t="shared" si="3"/>
         <v>27.883820772170907</v>
       </c>
       <c r="R76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.49253290040273989</v>
       </c>
       <c r="S76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.49253290040273989</v>
       </c>
     </row>
@@ -32171,15 +32183,15 @@
         <v>0.91159510612487704</v>
       </c>
       <c r="Q77">
-        <f>SUM(M77,O77:P77)</f>
+        <f t="shared" si="3"/>
         <v>26.999408245086578</v>
       </c>
       <c r="R77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.64549385808681992</v>
       </c>
       <c r="S77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -32233,15 +32245,15 @@
         <v>14.273836851119899</v>
       </c>
       <c r="Q78">
-        <f>SUM(M78,O78:P78)</f>
+        <f t="shared" si="3"/>
         <v>167.98894882202092</v>
       </c>
       <c r="R78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-2.6589729354223897</v>
       </c>
       <c r="S78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -32295,15 +32307,15 @@
         <v>17.166702032089201</v>
       </c>
       <c r="Q79">
-        <f>SUM(M79,O79:P79)</f>
+        <f t="shared" si="3"/>
         <v>65.833910942077509</v>
       </c>
       <c r="R79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-7.1464621661139889</v>
       </c>
       <c r="S79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -32357,15 +32369,15 @@
         <v>2.7198119163513099</v>
       </c>
       <c r="Q80">
-        <f>SUM(M80,O80:P80)</f>
+        <f t="shared" si="3"/>
         <v>57.802382946014312</v>
       </c>
       <c r="R80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-2.5776494062561799</v>
       </c>
       <c r="S80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -32419,15 +32431,15 @@
         <v>1.327880859375</v>
       </c>
       <c r="Q81">
-        <f>SUM(M81,O81:P81)</f>
+        <f t="shared" si="3"/>
         <v>30.0719120502471</v>
       </c>
       <c r="R81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.4186042310898621E-3</v>
       </c>
       <c r="S81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.4186042310898621E-3</v>
       </c>
     </row>
@@ -32481,15 +32493,15 @@
         <v>0.98281621932983398</v>
       </c>
       <c r="Q82">
-        <f>SUM(M82,O82:P82)</f>
+        <f t="shared" si="3"/>
         <v>26.172203302383235</v>
       </c>
       <c r="R82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-2.66913106807697</v>
       </c>
       <c r="S82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -32543,15 +32555,15 @@
         <v>36.771463871002197</v>
       </c>
       <c r="Q83">
-        <f>SUM(M83,O83:P83)</f>
+        <f t="shared" si="3"/>
         <v>164.78456354141179</v>
       </c>
       <c r="R83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.83388762942000993</v>
       </c>
       <c r="S83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -32605,15 +32617,15 @@
         <v>2.7865819931030198</v>
       </c>
       <c r="Q84">
-        <f>SUM(M84,O84:P84)</f>
+        <f t="shared" si="3"/>
         <v>44.020711660385018</v>
       </c>
       <c r="R84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.97665384111849995</v>
       </c>
       <c r="S84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -32667,15 +32679,15 @@
         <v>8.8327369689941406</v>
       </c>
       <c r="Q85">
-        <f>SUM(M85,O85:P85)</f>
+        <f t="shared" si="3"/>
         <v>51.59250831603994</v>
       </c>
       <c r="R85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.4636959090627979</v>
       </c>
       <c r="S85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -32729,15 +32741,15 @@
         <v>8.3686828613281197</v>
       </c>
       <c r="Q86">
-        <f>SUM(M86,O86:P86)</f>
+        <f t="shared" si="3"/>
         <v>51.965274810790916</v>
       </c>
       <c r="R86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.0654301404414279</v>
       </c>
       <c r="S86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -32791,15 +32803,15 @@
         <v>3.14240097999572</v>
       </c>
       <c r="Q87">
-        <f>SUM(M87,O87:P87)</f>
+        <f t="shared" si="3"/>
         <v>66.88373875617971</v>
       </c>
       <c r="R87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-2.8363006060377698</v>
       </c>
       <c r="S87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -32853,15 +32865,15 @@
         <v>12.6276490688323</v>
       </c>
       <c r="Q88">
-        <f>SUM(M88,O88:P88)</f>
+        <f t="shared" si="3"/>
         <v>108.18838524818399</v>
       </c>
       <c r="R88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.3189883176552499</v>
       </c>
       <c r="S88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -32915,15 +32927,15 @@
         <v>1.3797428607940601</v>
       </c>
       <c r="Q89">
-        <f>SUM(M89,O89:P89)</f>
+        <f t="shared" si="3"/>
         <v>60.031373500823968</v>
       </c>
       <c r="R89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-999999998.86644542</v>
       </c>
       <c r="S89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -32977,15 +32989,15 @@
         <v>3.6180930137634202</v>
       </c>
       <c r="Q90">
-        <f>SUM(M90,O90:P90)</f>
+        <f t="shared" si="3"/>
         <v>127.23408484458911</v>
       </c>
       <c r="R90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-999999998.70108175</v>
       </c>
       <c r="S90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -33039,15 +33051,15 @@
         <v>2.0143847465515101</v>
       </c>
       <c r="Q91">
-        <f>SUM(M91,O91:P91)</f>
+        <f t="shared" si="3"/>
         <v>58.83737277984612</v>
       </c>
       <c r="R91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-2.8604350965196899</v>
       </c>
       <c r="S91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -33101,15 +33113,15 @@
         <v>4.7219200134277299</v>
       </c>
       <c r="Q92">
-        <f>SUM(M92,O92:P92)</f>
+        <f t="shared" si="3"/>
         <v>58.737518072128232</v>
       </c>
       <c r="R92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-23.394650057405197</v>
       </c>
       <c r="S92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -33163,15 +33175,15 @@
         <v>6.4156861305236799</v>
       </c>
       <c r="Q93">
-        <f>SUM(M93,O93:P93)</f>
+        <f t="shared" si="3"/>
         <v>104.74445152282708</v>
       </c>
       <c r="R93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.37133113371795989</v>
       </c>
       <c r="S93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -33225,15 +33237,15 @@
         <v>3.7600150108337398</v>
       </c>
       <c r="Q94">
-        <f>SUM(M94,O94:P94)</f>
+        <f t="shared" si="3"/>
         <v>55.174478292465139</v>
       </c>
       <c r="R94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-999999998.86644542</v>
       </c>
       <c r="S94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -33287,15 +33299,15 @@
         <v>8.9075379371642995</v>
       </c>
       <c r="Q95">
-        <f>SUM(M95,O95:P95)</f>
+        <f t="shared" si="3"/>
         <v>152.00835013389542</v>
       </c>
       <c r="R95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.16614236058780008</v>
       </c>
       <c r="S95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.16614236058780008</v>
       </c>
     </row>
@@ -33349,15 +33361,15 @@
         <v>29.4878299236297</v>
       </c>
       <c r="Q96">
-        <f>SUM(M96,O96:P96)</f>
+        <f t="shared" si="3"/>
         <v>94.046868801116801</v>
       </c>
       <c r="R96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.49310908473565007</v>
       </c>
       <c r="S96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -33411,15 +33423,15 @@
         <v>10.2027893066406</v>
       </c>
       <c r="Q97">
-        <f>SUM(M97,O97:P97)</f>
+        <f t="shared" si="3"/>
         <v>123.7535462379455</v>
       </c>
       <c r="R97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-15.818754304864798</v>
       </c>
       <c r="S97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -33473,15 +33485,15 @@
         <v>8.9941859245300293</v>
       </c>
       <c r="Q98">
-        <f>SUM(M98,O98:P98)</f>
+        <f t="shared" si="3"/>
         <v>111.41663384437553</v>
       </c>
       <c r="R98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.27404563419329997</v>
       </c>
       <c r="S98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -33535,15 +33547,15 @@
         <v>8.5180907249450595</v>
       </c>
       <c r="Q99">
-        <f>SUM(M99,O99:P99)</f>
+        <f t="shared" si="3"/>
         <v>54.971920013427656</v>
       </c>
       <c r="R99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.72292728536171802</v>
       </c>
       <c r="S99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -33597,15 +33609,15 @@
         <v>11.723075866699199</v>
       </c>
       <c r="Q100">
-        <f>SUM(M100,O100:P100)</f>
+        <f t="shared" si="3"/>
         <v>71.307967901229802</v>
       </c>
       <c r="R100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.15606306893201993</v>
       </c>
       <c r="S100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.15606306893201993</v>
       </c>
     </row>
@@ -33659,15 +33671,15 @@
         <v>2.7637410163879301</v>
       </c>
       <c r="Q101">
-        <f>SUM(M101,O101:P101)</f>
+        <f t="shared" si="3"/>
         <v>114.92553615570063</v>
       </c>
       <c r="R101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-999999998.70108175</v>
       </c>
       <c r="S101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -33721,15 +33733,15 @@
         <v>10.9533400535583</v>
       </c>
       <c r="Q102">
-        <f>SUM(M102,O102:P102)</f>
+        <f t="shared" si="3"/>
         <v>109.69142222404469</v>
       </c>
       <c r="R102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.0246533246720599</v>
       </c>
       <c r="S102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -33783,15 +33795,15 @@
         <v>7.9379937648773096</v>
       </c>
       <c r="Q103">
-        <f>SUM(M103,O103:P103)</f>
+        <f t="shared" si="3"/>
         <v>115.63015031814571</v>
       </c>
       <c r="R103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.77961404645015997</v>
       </c>
       <c r="S103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -33845,15 +33857,15 @@
         <v>6.8034749031066797</v>
       </c>
       <c r="Q104">
-        <f>SUM(M104,O104:P104)</f>
+        <f t="shared" si="3"/>
         <v>72.969101667404075</v>
       </c>
       <c r="R104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.0678699216899901E-2</v>
       </c>
       <c r="S104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -33907,15 +33919,15 @@
         <v>3.64985918998718</v>
       </c>
       <c r="Q105">
-        <f>SUM(M105,O105:P105)</f>
+        <f t="shared" si="3"/>
         <v>60.663597345352088</v>
       </c>
       <c r="R105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.1908664802468898</v>
       </c>
       <c r="S105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -33969,15 +33981,15 @@
         <v>11.135324954986499</v>
       </c>
       <c r="Q106">
-        <f>SUM(M106,O106:P106)</f>
+        <f t="shared" si="3"/>
         <v>124.00922513008099</v>
       </c>
       <c r="R106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.97619086688740997</v>
       </c>
       <c r="S106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -34031,15 +34043,15 @@
         <v>2.7392361164093</v>
       </c>
       <c r="Q107">
-        <f>SUM(M107,O107:P107)</f>
+        <f t="shared" si="3"/>
         <v>118.7642612457274</v>
       </c>
       <c r="R107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.68333162266498992</v>
       </c>
       <c r="S107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -34093,15 +34105,15 @@
         <v>13.3754930496215</v>
       </c>
       <c r="Q108">
-        <f>SUM(M108,O108:P108)</f>
+        <f t="shared" si="3"/>
         <v>130.65754985809309</v>
       </c>
       <c r="R108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.9722959077078299</v>
       </c>
       <c r="S108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -34155,15 +34167,15 @@
         <v>7.2269310951232901</v>
       </c>
       <c r="Q109">
-        <f>SUM(M109,O109:P109)</f>
+        <f t="shared" si="3"/>
         <v>148.0474278926846</v>
       </c>
       <c r="R109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.73508560018654978</v>
       </c>
       <c r="S109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -34217,15 +34229,15 @@
         <v>2.5227708816528298</v>
       </c>
       <c r="Q110">
-        <f>SUM(M110,O110:P110)</f>
+        <f t="shared" si="3"/>
         <v>81.138450622558537</v>
       </c>
       <c r="R110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-8.0217049038369002</v>
       </c>
       <c r="S110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -34279,15 +34291,15 @@
         <v>38.484761714935303</v>
       </c>
       <c r="Q111">
-        <f>SUM(M111,O111:P111)</f>
+        <f t="shared" si="3"/>
         <v>160.57839035987848</v>
       </c>
       <c r="R111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.3488112503107599</v>
       </c>
       <c r="S111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -34341,15 +34353,15 @@
         <v>5.7146103382110596</v>
       </c>
       <c r="Q112">
-        <f>SUM(M112,O112:P112)</f>
+        <f t="shared" si="3"/>
         <v>126.75957131385795</v>
       </c>
       <c r="R112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.75322134009520991</v>
       </c>
       <c r="S112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -34403,15 +34415,15 @@
         <v>16.645534276962199</v>
       </c>
       <c r="Q113">
-        <f>SUM(M113,O113:P113)</f>
+        <f t="shared" si="3"/>
         <v>151.09415984153731</v>
       </c>
       <c r="R113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-70.826883153733192</v>
       </c>
       <c r="S113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -34465,15 +34477,15 @@
         <v>11.638247251510601</v>
       </c>
       <c r="Q114">
-        <f>SUM(M114,O114:P114)</f>
+        <f t="shared" si="3"/>
         <v>141.21630334854109</v>
       </c>
       <c r="R114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.39624145095292</v>
       </c>
       <c r="S114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -34527,15 +34539,15 @@
         <v>13.0694451332092</v>
       </c>
       <c r="Q115">
-        <f>SUM(M115,O115:P115)</f>
+        <f t="shared" si="3"/>
         <v>161.8468866348264</v>
       </c>
       <c r="R115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.0446022276209501</v>
       </c>
       <c r="S115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -34589,15 +34601,15 @@
         <v>2.29755687713623</v>
       </c>
       <c r="Q116">
-        <f>SUM(M116,O116:P116)</f>
+        <f t="shared" si="3"/>
         <v>126.89979863166803</v>
       </c>
       <c r="R116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-2.48401423497533</v>
       </c>
       <c r="S116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -34651,15 +34663,15 @@
         <v>51.354539155959998</v>
       </c>
       <c r="Q117">
-        <f>SUM(M117,O117:P117)</f>
+        <f t="shared" si="3"/>
         <v>193.19480204582189</v>
       </c>
       <c r="R117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.16013162944386994</v>
       </c>
       <c r="S117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -34713,15 +34725,15 @@
         <v>32.660632133483801</v>
       </c>
       <c r="Q118">
-        <f>SUM(M118,O118:P118)</f>
+        <f t="shared" si="3"/>
         <v>187.88279914855892</v>
       </c>
       <c r="R118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.34424034879961207</v>
       </c>
       <c r="S118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.34424034879961207</v>
       </c>
     </row>
@@ -34775,15 +34787,15 @@
         <v>28.4635071754455</v>
       </c>
       <c r="Q119">
-        <f>SUM(M119,O119:P119)</f>
+        <f t="shared" si="3"/>
         <v>180.32287836074821</v>
       </c>
       <c r="R119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.19306241030714011</v>
       </c>
       <c r="S119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.19306241030714011</v>
       </c>
     </row>
@@ -34837,15 +34849,15 @@
         <v>4.6131310462951598</v>
       </c>
       <c r="Q120">
-        <f>SUM(M120,O120:P120)</f>
+        <f t="shared" si="3"/>
         <v>163.83652687072697</v>
       </c>
       <c r="R120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-999999998.70108175</v>
       </c>
       <c r="S120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -34899,15 +34911,15 @@
         <v>42.309441089630099</v>
       </c>
       <c r="Q121">
-        <f>SUM(M121,O121:P121)</f>
+        <f t="shared" si="3"/>
         <v>258.85624909400894</v>
       </c>
       <c r="R121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.0949025705701043E-3</v>
       </c>
       <c r="S121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.0949025705701043E-3</v>
       </c>
     </row>
@@ -34961,7 +34973,7 @@
         <v>5.1187841892242396</v>
       </c>
       <c r="Q122">
-        <f>SUM(M122,O122:P122)</f>
+        <f t="shared" si="3"/>
         <v>56.448516368865938</v>
       </c>
       <c r="R122">
@@ -34969,7 +34981,7 @@
         <v>-0.79338113360973006</v>
       </c>
       <c r="S122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -35023,15 +35035,15 @@
         <v>33.775610923766997</v>
       </c>
       <c r="Q123">
-        <f>SUM(M123,O123:P123)</f>
+        <f t="shared" si="3"/>
         <v>160.30893301963775</v>
       </c>
       <c r="R123">
-        <f t="shared" ref="R123:R186" si="4">VLOOKUP(Q123,$M$122:$N$241, 2, TRUE)-E123</f>
+        <f t="shared" ref="R123:R186" si="6">VLOOKUP(Q123,$M$122:$N$241, 2, TRUE)-E123</f>
         <v>0.78395144476225997</v>
       </c>
       <c r="S123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.78395144476225997</v>
       </c>
     </row>
@@ -35085,15 +35097,15 @@
         <v>2.11791491508483</v>
       </c>
       <c r="Q124">
-        <f>SUM(M124,O124:P124)</f>
+        <f t="shared" si="3"/>
         <v>25.67953705787653</v>
       </c>
       <c r="R124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1.7676980217807101</v>
       </c>
       <c r="S124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -35147,15 +35159,15 @@
         <v>6.40010285377502</v>
       </c>
       <c r="Q125">
-        <f>SUM(M125,O125:P125)</f>
+        <f t="shared" si="3"/>
         <v>109.57524490356438</v>
       </c>
       <c r="R125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.12783259712163009</v>
       </c>
       <c r="S125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.12783259712163009</v>
       </c>
     </row>
@@ -35209,15 +35221,15 @@
         <v>9.2891283035278303</v>
       </c>
       <c r="Q126">
-        <f>SUM(M126,O126:P126)</f>
+        <f t="shared" si="3"/>
         <v>48.282222509384148</v>
       </c>
       <c r="R126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.7455706723895501</v>
       </c>
       <c r="S126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -35271,15 +35283,15 @@
         <v>3.7490718364715501</v>
       </c>
       <c r="Q127">
-        <f>SUM(M127,O127:P127)</f>
+        <f t="shared" si="3"/>
         <v>25.849537849426181</v>
       </c>
       <c r="R127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.88384720814903983</v>
       </c>
       <c r="S127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -35333,15 +35345,15 @@
         <v>31.128271818161</v>
       </c>
       <c r="Q128">
-        <f>SUM(M128,O128:P128)</f>
+        <f t="shared" si="3"/>
         <v>133.73612499237055</v>
       </c>
       <c r="R128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.57636250353662977</v>
       </c>
       <c r="S128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -35395,15 +35407,15 @@
         <v>138.35222768783501</v>
       </c>
       <c r="Q129">
-        <f>SUM(M129,O129:P129)</f>
+        <f t="shared" si="3"/>
         <v>255.71348643302846</v>
       </c>
       <c r="R129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-999999997.69942343</v>
       </c>
       <c r="S129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -35457,15 +35469,15 @@
         <v>4.3346290588378897</v>
       </c>
       <c r="Q130">
-        <f>SUM(M130,O130:P130)</f>
+        <f t="shared" ref="Q130:Q193" si="7">SUM(M130,O130:P130)</f>
         <v>16.307887077331529</v>
       </c>
       <c r="R130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-4.9379633081700902E-3</v>
       </c>
       <c r="S130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -35519,15 +35531,15 @@
         <v>4.8760209083557102</v>
       </c>
       <c r="Q131">
-        <f>SUM(M131,O131:P131)</f>
+        <f t="shared" si="7"/>
         <v>16.842252016067491</v>
       </c>
       <c r="R131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.50634832587477985</v>
       </c>
       <c r="S131">
-        <f t="shared" ref="S131:S194" si="5">IF(R131&gt;0, R131, 0)</f>
+        <f t="shared" ref="S131:S194" si="8">IF(R131&gt;0, R131, 0)</f>
         <v>0.50634832587477985</v>
       </c>
     </row>
@@ -35581,15 +35593,15 @@
         <v>2.7668898105621298</v>
       </c>
       <c r="Q132">
-        <f>SUM(M132,O132:P132)</f>
+        <f t="shared" si="7"/>
         <v>14.11676168441771</v>
       </c>
       <c r="R132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1.0222312435290037E-2</v>
       </c>
       <c r="S132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35643,15 +35655,15 @@
         <v>8.2294793128967196</v>
       </c>
       <c r="Q133">
-        <f>SUM(M133,O133:P133)</f>
+        <f t="shared" si="7"/>
         <v>51.847040414810117</v>
       </c>
       <c r="R133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1.5153769456509298</v>
       </c>
       <c r="S133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35705,15 +35717,15 @@
         <v>81.967855691909705</v>
       </c>
       <c r="Q134">
-        <f>SUM(M134,O134:P134)</f>
+        <f t="shared" si="7"/>
         <v>193.27949452400145</v>
       </c>
       <c r="R134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1.8715155338699496</v>
       </c>
       <c r="S134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35767,15 +35779,15 @@
         <v>21.25341796875</v>
       </c>
       <c r="Q135">
-        <f>SUM(M135,O135:P135)</f>
+        <f t="shared" si="7"/>
         <v>121.6282906532287</v>
       </c>
       <c r="R135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-9999999997.6994228</v>
       </c>
       <c r="S135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35829,15 +35841,15 @@
         <v>4.5003938674926696</v>
       </c>
       <c r="Q136">
-        <f>SUM(M136,O136:P136)</f>
+        <f t="shared" si="7"/>
         <v>29.49879717826833</v>
       </c>
       <c r="R136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-999999998.46613324</v>
       </c>
       <c r="S136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35891,15 +35903,15 @@
         <v>72.788066864013601</v>
       </c>
       <c r="Q137">
-        <f>SUM(M137,O137:P137)</f>
+        <f t="shared" si="7"/>
         <v>112.45377397537217</v>
       </c>
       <c r="R137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-5.1633517437352401</v>
       </c>
       <c r="S137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35953,15 +35965,15 @@
         <v>3.7764768600463801</v>
       </c>
       <c r="Q138">
-        <f>SUM(M138,O138:P138)</f>
+        <f t="shared" si="7"/>
         <v>14.17048192024229</v>
       </c>
       <c r="R138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1.5576306243595199</v>
       </c>
       <c r="S138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -36015,15 +36027,15 @@
         <v>3.3230209350585902</v>
       </c>
       <c r="Q139">
-        <f>SUM(M139,O139:P139)</f>
+        <f t="shared" si="7"/>
         <v>23.134560108184782</v>
       </c>
       <c r="R139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.4958815359635005</v>
       </c>
       <c r="S139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.4958815359635005</v>
       </c>
     </row>
@@ -36077,15 +36089,15 @@
         <v>3.5993218421936</v>
       </c>
       <c r="Q140">
-        <f>SUM(M140,O140:P140)</f>
+        <f t="shared" si="7"/>
         <v>18.461289882659901</v>
       </c>
       <c r="R140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.48593797560714025</v>
       </c>
       <c r="S140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -36139,15 +36151,15 @@
         <v>32.5713210105896</v>
       </c>
       <c r="Q141">
-        <f>SUM(M141,O141:P141)</f>
+        <f t="shared" si="7"/>
         <v>155.32352566719044</v>
       </c>
       <c r="R141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1.0240022706487402</v>
       </c>
       <c r="S141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -36201,15 +36213,15 @@
         <v>10.315879106521599</v>
       </c>
       <c r="Q142">
-        <f>SUM(M142,O142:P142)</f>
+        <f t="shared" si="7"/>
         <v>34.600706100463782</v>
       </c>
       <c r="R142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.62113610406448005</v>
       </c>
       <c r="S142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -36263,15 +36275,15 @@
         <v>4.6140010356902996</v>
       </c>
       <c r="Q143">
-        <f>SUM(M143,O143:P143)</f>
+        <f t="shared" si="7"/>
         <v>44.079675436019834</v>
       </c>
       <c r="R143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-29.584114417755099</v>
       </c>
       <c r="S143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -36325,15 +36337,15 @@
         <v>0.68067407608032204</v>
       </c>
       <c r="Q144">
-        <f>SUM(M144,O144:P144)</f>
+        <f t="shared" si="7"/>
         <v>11.440463066101064</v>
       </c>
       <c r="R144">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.18498779696875989</v>
       </c>
       <c r="S144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -36387,15 +36399,15 @@
         <v>133.759206056594</v>
       </c>
       <c r="Q145">
-        <f>SUM(M145,O145:P145)</f>
+        <f t="shared" si="7"/>
         <v>243.13649082183719</v>
       </c>
       <c r="R145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-999999997.69942343</v>
       </c>
       <c r="S145">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -36449,15 +36461,15 @@
         <v>73.247833728790198</v>
       </c>
       <c r="Q146">
-        <f>SUM(M146,O146:P146)</f>
+        <f t="shared" si="7"/>
         <v>179.92003965377793</v>
       </c>
       <c r="R146">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.29033331653663019</v>
       </c>
       <c r="S146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -36511,15 +36523,15 @@
         <v>1.77055215835571</v>
       </c>
       <c r="Q147">
-        <f>SUM(M147,O147:P147)</f>
+        <f t="shared" si="7"/>
         <v>23.43280410766598</v>
       </c>
       <c r="R147">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.0466581243862403</v>
       </c>
       <c r="S147">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.0466581243862403</v>
       </c>
     </row>
@@ -36573,15 +36585,15 @@
         <v>2.24099516868591</v>
       </c>
       <c r="Q148">
-        <f>SUM(M148,O148:P148)</f>
+        <f t="shared" si="7"/>
         <v>13.40053939819334</v>
       </c>
       <c r="R148">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-999999998.73171055</v>
       </c>
       <c r="S148">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -36635,15 +36647,15 @@
         <v>2.46022200584411</v>
       </c>
       <c r="Q149">
-        <f>SUM(M149,O149:P149)</f>
+        <f t="shared" si="7"/>
         <v>24.05484294891351</v>
       </c>
       <c r="R149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.42270288824634994</v>
       </c>
       <c r="S149">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.42270288824634994</v>
       </c>
     </row>
@@ -36697,15 +36709,15 @@
         <v>1.1853828430175699</v>
       </c>
       <c r="Q150">
-        <f>SUM(M150,O150:P150)</f>
+        <f t="shared" si="7"/>
         <v>13.048730850219709</v>
       </c>
       <c r="R150">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.97187991992046996</v>
       </c>
       <c r="S150">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -36759,15 +36771,15 @@
         <v>8.4908549785613996</v>
       </c>
       <c r="Q151">
-        <f>SUM(M151,O151:P151)</f>
+        <f t="shared" si="7"/>
         <v>31.253908872604299</v>
       </c>
       <c r="R151">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.33707524813203005</v>
       </c>
       <c r="S151">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -36821,15 +36833,15 @@
         <v>2.2569379806518501</v>
       </c>
       <c r="Q152">
-        <f>SUM(M152,O152:P152)</f>
+        <f t="shared" si="7"/>
         <v>22.250483036041238</v>
       </c>
       <c r="R152">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.72928979060574983</v>
       </c>
       <c r="S152">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -36883,15 +36895,15 @@
         <v>19.425065040588301</v>
       </c>
       <c r="Q153">
-        <f>SUM(M153,O153:P153)</f>
+        <f t="shared" si="7"/>
         <v>71.101125478744365</v>
       </c>
       <c r="R153">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-8.1462526371724913</v>
       </c>
       <c r="S153">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -36945,15 +36957,15 @@
         <v>1.84583616256713</v>
       </c>
       <c r="Q154">
-        <f>SUM(M154,O154:P154)</f>
+        <f t="shared" si="7"/>
         <v>11.32764124870298</v>
       </c>
       <c r="R154">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.46333178529589003</v>
       </c>
       <c r="S154">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -37007,15 +37019,15 @@
         <v>1.4669210910797099</v>
       </c>
       <c r="Q155">
-        <f>SUM(M155,O155:P155)</f>
+        <f t="shared" si="7"/>
         <v>28.02012181282036</v>
       </c>
       <c r="R155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.82643594671880982</v>
       </c>
       <c r="S155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -37069,15 +37081,15 @@
         <v>18.8980150222778</v>
       </c>
       <c r="Q156">
-        <f>SUM(M156,O156:P156)</f>
+        <f t="shared" si="7"/>
         <v>149.46026301383955</v>
       </c>
       <c r="R156">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1387587.2083361298</v>
       </c>
       <c r="S156">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -37131,15 +37143,15 @@
         <v>27.049410104751502</v>
       </c>
       <c r="Q157">
-        <f>SUM(M157,O157:P157)</f>
+        <f t="shared" si="7"/>
         <v>139.47599530219941</v>
       </c>
       <c r="R157">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-9999999997.6994228</v>
       </c>
       <c r="S157">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -37193,15 +37205,15 @@
         <v>7.8898599147796604</v>
       </c>
       <c r="Q158">
-        <f>SUM(M158,O158:P158)</f>
+        <f t="shared" si="7"/>
         <v>51.634217262267995</v>
       </c>
       <c r="R158">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.33866742483637013</v>
       </c>
       <c r="S158">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -37255,15 +37267,15 @@
         <v>18.806626796722401</v>
       </c>
       <c r="Q159">
-        <f>SUM(M159,O159:P159)</f>
+        <f t="shared" si="7"/>
         <v>66.930440664291268</v>
       </c>
       <c r="R159">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-999999997.69942343</v>
       </c>
       <c r="S159">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -37317,15 +37329,15 @@
         <v>7.6291098594665501</v>
       </c>
       <c r="Q160">
-        <f>SUM(M160,O160:P160)</f>
+        <f t="shared" si="7"/>
         <v>21.467244863510118</v>
       </c>
       <c r="R160">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1.7782512340679202</v>
       </c>
       <c r="S160">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -37379,15 +37391,15 @@
         <v>10.044536113738999</v>
       </c>
       <c r="Q161">
-        <f>SUM(M161,O161:P161)</f>
+        <f t="shared" si="7"/>
         <v>51.001461267471214</v>
       </c>
       <c r="R161">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1.2420210921367101</v>
       </c>
       <c r="S161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -37441,15 +37453,15 @@
         <v>6.3203928470611501</v>
       </c>
       <c r="Q162">
-        <f>SUM(M162,O162:P162)</f>
+        <f t="shared" si="7"/>
         <v>52.48539710044853</v>
       </c>
       <c r="R162">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-999999998.0256362</v>
       </c>
       <c r="S162">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -37503,15 +37515,15 @@
         <v>25.797491073608398</v>
       </c>
       <c r="Q163">
-        <f>SUM(M163,O163:P163)</f>
+        <f t="shared" si="7"/>
         <v>158.05781340599023</v>
       </c>
       <c r="R163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.17401441679293983</v>
       </c>
       <c r="S163">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -37565,15 +37577,15 @@
         <v>7.6882290840148899</v>
       </c>
       <c r="Q164">
-        <f>SUM(M164,O164:P164)</f>
+        <f t="shared" si="7"/>
         <v>52.068775653839111</v>
       </c>
       <c r="R164">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.1019329367419957E-2</v>
       </c>
       <c r="S164">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.1019329367419957E-2</v>
       </c>
     </row>
@@ -37627,15 +37639,15 @@
         <v>5.0436551570892298</v>
       </c>
       <c r="Q165">
-        <f>SUM(M165,O165:P165)</f>
+        <f t="shared" si="7"/>
         <v>30.525023937225331</v>
       </c>
       <c r="R165">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.73841564883255995</v>
       </c>
       <c r="S165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -37689,15 +37701,15 @@
         <v>2.4665379524230899</v>
       </c>
       <c r="Q166">
-        <f>SUM(M166,O166:P166)</f>
+        <f t="shared" si="7"/>
         <v>18.731120824813818</v>
       </c>
       <c r="R166">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.73983996331516</v>
       </c>
       <c r="S166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -37751,15 +37763,15 @@
         <v>2.40464782714843</v>
       </c>
       <c r="Q167">
-        <f>SUM(M167,O167:P167)</f>
+        <f t="shared" si="7"/>
         <v>26.94501638412472</v>
       </c>
       <c r="R167">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.68438435339778025</v>
       </c>
       <c r="S167">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -37813,15 +37825,15 @@
         <v>4.4978640079498202</v>
       </c>
       <c r="Q168">
-        <f>SUM(M168,O168:P168)</f>
+        <f t="shared" si="7"/>
         <v>22.430322885513242</v>
       </c>
       <c r="R168">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.28888462424528005</v>
       </c>
       <c r="S168">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -37875,15 +37887,15 @@
         <v>2.9694089889526301</v>
       </c>
       <c r="Q169">
-        <f>SUM(M169,O169:P169)</f>
+        <f t="shared" si="7"/>
         <v>48.98798370361326</v>
       </c>
       <c r="R169">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.77517214809858981</v>
       </c>
       <c r="S169">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -37937,15 +37949,15 @@
         <v>4.5185017585754297</v>
       </c>
       <c r="Q170">
-        <f>SUM(M170,O170:P170)</f>
+        <f t="shared" si="7"/>
         <v>47.994896650314317</v>
       </c>
       <c r="R170">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.81718170513259003</v>
       </c>
       <c r="S170">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -37999,15 +38011,15 @@
         <v>6.3336701393127397</v>
       </c>
       <c r="Q171">
-        <f>SUM(M171,O171:P171)</f>
+        <f t="shared" si="7"/>
         <v>48.988047599792374</v>
       </c>
       <c r="R171">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.10761260528347005</v>
       </c>
       <c r="S171">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -38061,15 +38073,15 @@
         <v>4.8961279392242396</v>
       </c>
       <c r="Q172">
-        <f>SUM(M172,O172:P172)</f>
+        <f t="shared" si="7"/>
         <v>29.562641859054541</v>
       </c>
       <c r="R172">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1.1363228221747601</v>
       </c>
       <c r="S172">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -38123,15 +38135,15 @@
         <v>3.14341711997985</v>
       </c>
       <c r="Q173">
-        <f>SUM(M173,O173:P173)</f>
+        <f t="shared" si="7"/>
         <v>27.465185165405188</v>
       </c>
       <c r="R173">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-4.3231846678376007</v>
       </c>
       <c r="S173">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -38185,15 +38197,15 @@
         <v>3.2010970115661599</v>
       </c>
       <c r="Q174">
-        <f>SUM(M174,O174:P174)</f>
+        <f t="shared" si="7"/>
         <v>31.313962221145612</v>
       </c>
       <c r="R174">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.93422382789049019</v>
       </c>
       <c r="S174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -38247,15 +38259,15 @@
         <v>54.1704869270324</v>
       </c>
       <c r="Q175">
-        <f>SUM(M175,O175:P175)</f>
+        <f t="shared" si="7"/>
         <v>158.66178989410389</v>
       </c>
       <c r="R175">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.43580509857118011</v>
       </c>
       <c r="S175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.43580509857118011</v>
       </c>
     </row>
@@ -38309,15 +38321,15 @@
         <v>64.054185152053805</v>
       </c>
       <c r="Q176">
-        <f>SUM(M176,O176:P176)</f>
+        <f t="shared" si="7"/>
         <v>171.03579306602472</v>
       </c>
       <c r="R176">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.57607150662255013</v>
       </c>
       <c r="S176">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.57607150662255013</v>
       </c>
     </row>
@@ -38371,15 +38383,15 @@
         <v>18.293898344039899</v>
       </c>
       <c r="Q177">
-        <f>SUM(M177,O177:P177)</f>
+        <f t="shared" si="7"/>
         <v>67.857910156249929</v>
       </c>
       <c r="R177">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.63580245593438001</v>
       </c>
       <c r="S177">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.63580245593438001</v>
       </c>
     </row>
@@ -38433,15 +38445,15 @@
         <v>3.3467409610748202</v>
       </c>
       <c r="Q178">
-        <f>SUM(M178,O178:P178)</f>
+        <f t="shared" si="7"/>
         <v>29.259716749191249</v>
       </c>
       <c r="R178">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.83870047756784016</v>
       </c>
       <c r="S178">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -38495,15 +38507,15 @@
         <v>7.35682797431945</v>
       </c>
       <c r="Q179">
-        <f>SUM(M179,O179:P179)</f>
+        <f t="shared" si="7"/>
         <v>68.798410177230778</v>
       </c>
       <c r="R179">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.80831877829144005</v>
       </c>
       <c r="S179">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -38557,15 +38569,15 @@
         <v>20.133336782455402</v>
       </c>
       <c r="Q180">
-        <f>SUM(M180,O180:P180)</f>
+        <f t="shared" si="7"/>
         <v>70.92511677741993</v>
       </c>
       <c r="R180">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.21184512296454994</v>
       </c>
       <c r="S180">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -38619,15 +38631,15 @@
         <v>4.0648839473724303</v>
       </c>
       <c r="Q181">
-        <f>SUM(M181,O181:P181)</f>
+        <f t="shared" si="7"/>
         <v>27.401465177536</v>
       </c>
       <c r="R181">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.95322073120221984</v>
       </c>
       <c r="S181">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -38681,15 +38693,15 @@
         <v>10.4712941646575</v>
       </c>
       <c r="Q182">
-        <f>SUM(M182,O182:P182)</f>
+        <f t="shared" si="7"/>
         <v>56.27728605270368</v>
       </c>
       <c r="R182">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.7993204875158999</v>
       </c>
       <c r="S182">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -38743,15 +38755,15 @@
         <v>15.743302822113</v>
       </c>
       <c r="Q183">
-        <f>SUM(M183,O183:P183)</f>
+        <f t="shared" si="7"/>
         <v>58.821764707565208</v>
       </c>
       <c r="R183">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-6.8063435251199955E-3</v>
       </c>
       <c r="S183">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -38805,15 +38817,15 @@
         <v>39.540092945098799</v>
       </c>
       <c r="Q184">
-        <f>SUM(M184,O184:P184)</f>
+        <f t="shared" si="7"/>
         <v>99.330228805541822</v>
       </c>
       <c r="R184">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.84108535686002006</v>
       </c>
       <c r="S184">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.84108535686002006</v>
       </c>
     </row>
@@ -38867,15 +38879,15 @@
         <v>42.99383187294</v>
       </c>
       <c r="Q185">
-        <f>SUM(M185,O185:P185)</f>
+        <f t="shared" si="7"/>
         <v>164.76765990257169</v>
       </c>
       <c r="R185">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.3943240591803101</v>
       </c>
       <c r="S185">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -38929,15 +38941,15 @@
         <v>12.9878120422363</v>
       </c>
       <c r="Q186">
-        <f>SUM(M186,O186:P186)</f>
+        <f t="shared" si="7"/>
         <v>139.9472637176506</v>
       </c>
       <c r="R186">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.41712105536337019</v>
       </c>
       <c r="S186">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -38991,15 +39003,15 @@
         <v>4.2294511795043901</v>
       </c>
       <c r="Q187">
-        <f>SUM(M187,O187:P187)</f>
+        <f t="shared" si="7"/>
         <v>34.286355495452831</v>
       </c>
       <c r="R187">
-        <f t="shared" ref="R187:T241" si="6">VLOOKUP(Q187,$M$122:$N$241, 2, TRUE)-E187</f>
+        <f t="shared" ref="R187:R241" si="9">VLOOKUP(Q187,$M$122:$N$241, 2, TRUE)-E187</f>
         <v>0.60577790146394994</v>
       </c>
       <c r="S187">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.60577790146394994</v>
       </c>
     </row>
@@ -39053,15 +39065,15 @@
         <v>24.808016300201398</v>
       </c>
       <c r="Q188">
-        <f>SUM(M188,O188:P188)</f>
+        <f t="shared" si="7"/>
         <v>129.23393011093131</v>
       </c>
       <c r="R188">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.18946689116652982</v>
       </c>
       <c r="S188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.18946689116652982</v>
       </c>
     </row>
@@ -39115,15 +39127,15 @@
         <v>20.557696104049601</v>
       </c>
       <c r="Q189">
-        <f>SUM(M189,O189:P189)</f>
+        <f t="shared" si="7"/>
         <v>125.90765285491932</v>
       </c>
       <c r="R189">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.89674237927792011</v>
       </c>
       <c r="S189">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.89674237927792011</v>
       </c>
     </row>
@@ -39177,15 +39189,15 @@
         <v>20.555371046066199</v>
       </c>
       <c r="Q190">
-        <f>SUM(M190,O190:P190)</f>
+        <f t="shared" si="7"/>
         <v>72.565152883529578</v>
       </c>
       <c r="R190">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-3.1189629330839796E-2</v>
       </c>
       <c r="S190">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -39239,15 +39251,15 @@
         <v>3.07000303268432</v>
       </c>
       <c r="Q191">
-        <f>SUM(M191,O191:P191)</f>
+        <f t="shared" si="7"/>
         <v>30.734065294265729</v>
       </c>
       <c r="R191">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-0.76272818503003004</v>
       </c>
       <c r="S191">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -39301,15 +39313,15 @@
         <v>1.6331470012664699</v>
       </c>
       <c r="Q192">
-        <f>SUM(M192,O192:P192)</f>
+        <f t="shared" si="7"/>
         <v>27.216196060180469</v>
       </c>
       <c r="R192">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-0.60477377857024006</v>
       </c>
       <c r="S192">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -39363,15 +39375,15 @@
         <v>11.384859800338701</v>
       </c>
       <c r="Q193">
-        <f>SUM(M193,O193:P193)</f>
+        <f t="shared" si="7"/>
         <v>65.505217075347701</v>
       </c>
       <c r="R193">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.21391212925006009</v>
       </c>
       <c r="S193">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.21391212925006009</v>
       </c>
     </row>
@@ -39425,15 +39437,15 @@
         <v>6.5874209403991699</v>
       </c>
       <c r="Q194">
-        <f>SUM(M194,O194:P194)</f>
+        <f t="shared" ref="Q194:Q257" si="10">SUM(M194,O194:P194)</f>
         <v>32.75924110412587</v>
       </c>
       <c r="R194">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.66184017601121004</v>
       </c>
       <c r="S194">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.66184017601121004</v>
       </c>
     </row>
@@ -39487,15 +39499,15 @@
         <v>46.574630737304602</v>
       </c>
       <c r="Q195">
-        <f>SUM(M195,O195:P195)</f>
+        <f t="shared" si="10"/>
         <v>176.10131168365402</v>
       </c>
       <c r="R195">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.42954381653338003</v>
       </c>
       <c r="S195">
-        <f t="shared" ref="S195:S241" si="7">IF(R195&gt;0, R195, 0)</f>
+        <f t="shared" ref="S195:S241" si="11">IF(R195&gt;0, R195, 0)</f>
         <v>0.42954381653338003</v>
       </c>
     </row>
@@ -39549,15 +39561,15 @@
         <v>8.6955869197845406</v>
       </c>
       <c r="Q196">
-        <f>SUM(M196,O196:P196)</f>
+        <f t="shared" si="10"/>
         <v>35.255787849426142</v>
       </c>
       <c r="R196">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-0.16812699107843998</v>
       </c>
       <c r="S196">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -39611,15 +39623,15 @@
         <v>7.4124610424041704</v>
       </c>
       <c r="Q197">
-        <f>SUM(M197,O197:P197)</f>
+        <f t="shared" si="10"/>
         <v>34.679862022399767</v>
       </c>
       <c r="R197">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-0.26521964602725001</v>
       </c>
       <c r="S197">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -39673,15 +39685,15 @@
         <v>19.577334880828801</v>
       </c>
       <c r="Q198">
-        <f>SUM(M198,O198:P198)</f>
+        <f t="shared" si="10"/>
         <v>140.33366155624361</v>
       </c>
       <c r="R198">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.25251425862296983</v>
       </c>
       <c r="S198">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.25251425862296983</v>
       </c>
     </row>
@@ -39735,15 +39747,15 @@
         <v>18.8131470680236</v>
       </c>
       <c r="Q199">
-        <f>SUM(M199,O199:P199)</f>
+        <f t="shared" si="10"/>
         <v>69.770365715026699</v>
       </c>
       <c r="R199">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.82203645265664993</v>
       </c>
       <c r="S199">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.82203645265664993</v>
       </c>
     </row>
@@ -39797,15 +39809,15 @@
         <v>115.901742696762</v>
       </c>
       <c r="Q200">
-        <f>SUM(M200,O200:P200)</f>
+        <f t="shared" si="10"/>
         <v>254.50986313819809</v>
       </c>
       <c r="R200">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.75600958392120998</v>
       </c>
       <c r="S200">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.75600958392120998</v>
       </c>
     </row>
@@ -39859,15 +39871,15 @@
         <v>46.345075845718299</v>
       </c>
       <c r="Q201">
-        <f>SUM(M201,O201:P201)</f>
+        <f t="shared" si="10"/>
         <v>163.25697898864661</v>
       </c>
       <c r="R201">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-0.56623020859513007</v>
       </c>
       <c r="S201">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -39921,15 +39933,15 @@
         <v>41.221301078796301</v>
       </c>
       <c r="Q202">
-        <f>SUM(M202,O202:P202)</f>
+        <f t="shared" si="10"/>
         <v>165.98058605194001</v>
       </c>
       <c r="R202">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-0.22565271596706005</v>
       </c>
       <c r="S202">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -39983,15 +39995,15 @@
         <v>89.981235980987506</v>
       </c>
       <c r="Q203">
-        <f>SUM(M203,O203:P203)</f>
+        <f t="shared" si="10"/>
         <v>205.73471784591652</v>
       </c>
       <c r="R203">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.56073445820558998</v>
       </c>
       <c r="S203">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.56073445820558998</v>
       </c>
     </row>
@@ -40045,15 +40057,15 @@
         <v>3.30333304405212</v>
       </c>
       <c r="Q204">
-        <f>SUM(M204,O204:P204)</f>
+        <f t="shared" si="10"/>
         <v>68.606312036514225</v>
       </c>
       <c r="R204">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.34710468899912006</v>
       </c>
       <c r="S204">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.34710468899912006</v>
       </c>
     </row>
@@ -40107,15 +40119,15 @@
         <v>1.53335213661193</v>
       </c>
       <c r="Q205">
-        <f>SUM(M205,O205:P205)</f>
+        <f t="shared" si="10"/>
         <v>37.387042760848935</v>
       </c>
       <c r="R205">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-0.86472853148976014</v>
       </c>
       <c r="S205">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -40169,15 +40181,15 @@
         <v>9.7463932037353498</v>
       </c>
       <c r="Q206">
-        <f>SUM(M206,O206:P206)</f>
+        <f t="shared" si="10"/>
         <v>66.470762252807546</v>
       </c>
       <c r="R206">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-0.62249700031884991</v>
       </c>
       <c r="S206">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -40231,15 +40243,15 @@
         <v>31.4076650142669</v>
       </c>
       <c r="Q207">
-        <f>SUM(M207,O207:P207)</f>
+        <f t="shared" si="10"/>
         <v>149.50767993926982</v>
       </c>
       <c r="R207">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-4.7226021766894402</v>
       </c>
       <c r="S207">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -40293,15 +40305,15 @@
         <v>15.2126061916351</v>
       </c>
       <c r="Q208">
-        <f>SUM(M208,O208:P208)</f>
+        <f t="shared" si="10"/>
         <v>72.780091524124003</v>
       </c>
       <c r="R208">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.98471611756562005</v>
       </c>
       <c r="S208">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.98471611756562005</v>
       </c>
     </row>
@@ -40355,15 +40367,15 @@
         <v>36.433507919311502</v>
       </c>
       <c r="Q209">
-        <f>SUM(M209,O209:P209)</f>
+        <f t="shared" si="10"/>
         <v>157.56495189666731</v>
       </c>
       <c r="R209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.75106162675450006</v>
       </c>
       <c r="S209">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.75106162675450006</v>
       </c>
     </row>
@@ -40417,15 +40429,15 @@
         <v>36.460325241088803</v>
       </c>
       <c r="Q210">
-        <f>SUM(M210,O210:P210)</f>
+        <f t="shared" si="10"/>
         <v>95.649606466293193</v>
       </c>
       <c r="R210">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.91888024998270001</v>
       </c>
       <c r="S210">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.91888024998270001</v>
       </c>
     </row>
@@ -40479,15 +40491,15 @@
         <v>3.0914158821105899</v>
       </c>
       <c r="Q211">
-        <f>SUM(M211,O211:P211)</f>
+        <f t="shared" si="10"/>
         <v>61.819426059722794</v>
       </c>
       <c r="R211">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.83240987696982005</v>
       </c>
       <c r="S211">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.83240987696982005</v>
       </c>
     </row>
@@ -40541,15 +40553,15 @@
         <v>52.280986070632899</v>
       </c>
       <c r="Q212">
-        <f>SUM(M212,O212:P212)</f>
+        <f t="shared" si="10"/>
         <v>111.46696925163261</v>
       </c>
       <c r="R212">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.38512298883851992</v>
       </c>
       <c r="S212">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.38512298883851992</v>
       </c>
     </row>
@@ -40603,15 +40615,15 @@
         <v>37.901699066162102</v>
       </c>
       <c r="Q213">
-        <f>SUM(M213,O213:P213)</f>
+        <f t="shared" si="10"/>
         <v>155.3556759357451</v>
       </c>
       <c r="R213">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.75407930940661005</v>
       </c>
       <c r="S213">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.75407930940661005</v>
       </c>
     </row>
@@ -40665,15 +40677,15 @@
         <v>20.991253137588501</v>
       </c>
       <c r="Q214">
-        <f>SUM(M214,O214:P214)</f>
+        <f t="shared" si="10"/>
         <v>138.17133808135981</v>
       </c>
       <c r="R214">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.83039795902905</v>
       </c>
       <c r="S214">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.83039795902905</v>
       </c>
     </row>
@@ -40727,15 +40739,15 @@
         <v>38.537043809890697</v>
       </c>
       <c r="Q215">
-        <f>SUM(M215,O215:P215)</f>
+        <f t="shared" si="10"/>
         <v>166.66996979713377</v>
       </c>
       <c r="R215">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.50107974305057001</v>
       </c>
       <c r="S215">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.50107974305057001</v>
       </c>
     </row>
@@ -40789,15 +40801,15 @@
         <v>44.035431861877399</v>
       </c>
       <c r="Q216">
-        <f>SUM(M216,O216:P216)</f>
+        <f t="shared" si="10"/>
         <v>160.64105176925648</v>
       </c>
       <c r="R216">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-3.4661134220185197</v>
       </c>
       <c r="S216">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -40851,15 +40863,15 @@
         <v>13.1829140186309</v>
       </c>
       <c r="Q217">
-        <f>SUM(M217,O217:P217)</f>
+        <f t="shared" si="10"/>
         <v>70.785057067870895</v>
       </c>
       <c r="R217">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.00895656668583</v>
       </c>
       <c r="S217">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.00895656668583</v>
       </c>
     </row>
@@ -40913,15 +40925,15 @@
         <v>45.788541078567498</v>
       </c>
       <c r="Q218">
-        <f>SUM(M218,O218:P218)</f>
+        <f t="shared" si="10"/>
         <v>176.52860713004969</v>
       </c>
       <c r="R218">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.71980042953307999</v>
       </c>
       <c r="S218">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.71980042953307999</v>
       </c>
     </row>
@@ -40975,15 +40987,15 @@
         <v>48.318742990493703</v>
       </c>
       <c r="Q219">
-        <f>SUM(M219,O219:P219)</f>
+        <f t="shared" si="10"/>
         <v>114.7391951084135</v>
       </c>
       <c r="R219">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-6.6622351961776998</v>
       </c>
       <c r="S219">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -41037,15 +41049,15 @@
         <v>22.570578098297101</v>
       </c>
       <c r="Q220">
-        <f>SUM(M220,O220:P220)</f>
+        <f t="shared" si="10"/>
         <v>87.992656230926414</v>
       </c>
       <c r="R220">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.44716736894792009</v>
       </c>
       <c r="S220">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.44716736894792009</v>
       </c>
     </row>
@@ -41099,15 +41111,15 @@
         <v>118.56395792961101</v>
       </c>
       <c r="Q221">
-        <f>SUM(M221,O221:P221)</f>
+        <f t="shared" si="10"/>
         <v>247.0548019409168</v>
       </c>
       <c r="R221">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.05141730140011</v>
       </c>
       <c r="S221">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.05141730140011</v>
       </c>
     </row>
@@ -41161,15 +41173,15 @@
         <v>102.77575707435599</v>
       </c>
       <c r="Q222">
-        <f>SUM(M222,O222:P222)</f>
+        <f t="shared" si="10"/>
         <v>240.4911580085747</v>
       </c>
       <c r="R222">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.92962341057607012</v>
       </c>
       <c r="S222">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.92962341057607012</v>
       </c>
     </row>
@@ -41223,15 +41235,15 @@
         <v>85.919001102447496</v>
       </c>
       <c r="Q223">
-        <f>SUM(M223,O223:P223)</f>
+        <f t="shared" si="10"/>
         <v>217.28810524940479</v>
       </c>
       <c r="R223">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.36202927837293997</v>
       </c>
       <c r="S223">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.36202927837293997</v>
       </c>
     </row>
@@ -41285,15 +41297,15 @@
         <v>19.585039138793899</v>
       </c>
       <c r="Q224">
-        <f>SUM(M224,O224:P224)</f>
+        <f t="shared" si="10"/>
         <v>147.4681570529934</v>
       </c>
       <c r="R224">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-9.3036774316450188E-2</v>
       </c>
       <c r="S224">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -41347,15 +41359,15 @@
         <v>15.041129112243601</v>
       </c>
       <c r="Q225">
-        <f>SUM(M225,O225:P225)</f>
+        <f t="shared" si="10"/>
         <v>137.65124130249009</v>
       </c>
       <c r="R225">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.93198422083928012</v>
       </c>
       <c r="S225">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.93198422083928012</v>
       </c>
     </row>
@@ -41409,15 +41421,15 @@
         <v>11.1876909732818</v>
       </c>
       <c r="Q226">
-        <f>SUM(M226,O226:P226)</f>
+        <f t="shared" si="10"/>
         <v>92.514431953430005</v>
       </c>
       <c r="R226">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.70987016379141998</v>
       </c>
       <c r="S226">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.70987016379141998</v>
       </c>
     </row>
@@ -41471,15 +41483,15 @@
         <v>18.4376139640808</v>
       </c>
       <c r="Q227">
-        <f>SUM(M227,O227:P227)</f>
+        <f t="shared" si="10"/>
         <v>87.381605863570996</v>
       </c>
       <c r="R227">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.78666830606004012</v>
       </c>
       <c r="S227">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.78666830606004012</v>
       </c>
     </row>
@@ -41533,15 +41545,15 @@
         <v>10.8025839328765</v>
       </c>
       <c r="Q228">
-        <f>SUM(M228,O228:P228)</f>
+        <f t="shared" si="10"/>
         <v>79.370152711868101</v>
       </c>
       <c r="R228">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-4.054097698720005E-2</v>
       </c>
       <c r="S228">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -41595,15 +41607,15 @@
         <v>34.008498907089198</v>
       </c>
       <c r="Q229">
-        <f>SUM(M229,O229:P229)</f>
+        <f t="shared" si="10"/>
         <v>107.36167860031111</v>
       </c>
       <c r="R229">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.77850663524819996</v>
       </c>
       <c r="S229">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.77850663524819996</v>
       </c>
     </row>
@@ -41657,15 +41669,15 @@
         <v>73.452376127242999</v>
       </c>
       <c r="Q230">
-        <f>SUM(M230,O230:P230)</f>
+        <f t="shared" si="10"/>
         <v>211.12934517860401</v>
       </c>
       <c r="R230">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.89663790263589993</v>
       </c>
       <c r="S230">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.89663790263589993</v>
       </c>
     </row>
@@ -41719,15 +41731,15 @@
         <v>48.507983922958303</v>
       </c>
       <c r="Q231">
-        <f>SUM(M231,O231:P231)</f>
+        <f t="shared" si="10"/>
         <v>188.13227605819691</v>
       </c>
       <c r="R231">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-5.4446505461290151E-2</v>
       </c>
       <c r="S231">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -41781,15 +41793,15 @@
         <v>18.176419973373399</v>
       </c>
       <c r="Q232">
-        <f>SUM(M232,O232:P232)</f>
+        <f t="shared" si="10"/>
         <v>167.5822663307182</v>
       </c>
       <c r="R232">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.16105763863536993</v>
       </c>
       <c r="S232">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.16105763863536993</v>
       </c>
     </row>
@@ -41843,15 +41855,15 @@
         <v>27.360696077346802</v>
       </c>
       <c r="Q233">
-        <f>SUM(M233,O233:P233)</f>
+        <f t="shared" si="10"/>
         <v>194.0089170932763</v>
       </c>
       <c r="R233">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.60905933010074009</v>
       </c>
       <c r="S233">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.60905933010074009</v>
       </c>
     </row>
@@ -41905,15 +41917,15 @@
         <v>85.907021999359102</v>
       </c>
       <c r="Q234">
-        <f>SUM(M234,O234:P234)</f>
+        <f t="shared" si="10"/>
         <v>225.95761394500718</v>
       </c>
       <c r="R234">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.02240913729104</v>
       </c>
       <c r="S234">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.02240913729104</v>
       </c>
     </row>
@@ -41967,15 +41979,15 @@
         <v>140.578408956527</v>
       </c>
       <c r="Q235">
-        <f>SUM(M235,O235:P235)</f>
+        <f t="shared" si="10"/>
         <v>282.4175882339469</v>
       </c>
       <c r="R235">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.71689582404259</v>
       </c>
       <c r="S235">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.71689582404259</v>
       </c>
     </row>
@@ -42029,15 +42041,15 @@
         <v>30.990396976470901</v>
       </c>
       <c r="Q236">
-        <f>SUM(M236,O236:P236)</f>
+        <f t="shared" si="10"/>
         <v>177.9572811126701</v>
       </c>
       <c r="R236">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-0.8935491459718099</v>
       </c>
       <c r="S236">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -42091,15 +42103,15 @@
         <v>90.786003112792898</v>
       </c>
       <c r="Q237">
-        <f>SUM(M237,O237:P237)</f>
+        <f t="shared" si="10"/>
         <v>245.70958614349342</v>
       </c>
       <c r="R237">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.84057094227257001</v>
       </c>
       <c r="S237">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.84057094227257001</v>
       </c>
     </row>
@@ -42153,15 +42165,15 @@
         <v>49.1866550445556</v>
       </c>
       <c r="Q238">
-        <f>SUM(M238,O238:P238)</f>
+        <f t="shared" si="10"/>
         <v>189.5169758796691</v>
       </c>
       <c r="R238">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.43186770580591993</v>
       </c>
       <c r="S238">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.43186770580591993</v>
       </c>
     </row>
@@ -42215,15 +42227,15 @@
         <v>36.2796308994293</v>
       </c>
       <c r="Q239">
-        <f>SUM(M239,O239:P239)</f>
+        <f t="shared" si="10"/>
         <v>181.01274681091289</v>
       </c>
       <c r="R239">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.90925574332108994</v>
       </c>
       <c r="S239">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.90925574332108994</v>
       </c>
     </row>
@@ -42277,15 +42289,15 @@
         <v>64.049518108367906</v>
       </c>
       <c r="Q240">
-        <f>SUM(M240,O240:P240)</f>
+        <f t="shared" si="10"/>
         <v>241.29140543937581</v>
       </c>
       <c r="R240">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.32462783489984992</v>
       </c>
       <c r="S240">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.32462783489984992</v>
       </c>
     </row>
@@ -42339,15 +42351,15 @@
         <v>133.16706800460801</v>
       </c>
       <c r="Q241">
-        <f>SUM(M241,O241:P241)</f>
+        <f t="shared" si="10"/>
         <v>305.62150573730355</v>
       </c>
       <c r="R241">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7.0779546511650082E-2</v>
       </c>
       <c r="S241">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>7.0779546511650082E-2</v>
       </c>
     </row>
@@ -42370,8 +42382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B634"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
